--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,14 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -306,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,7 +629,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -631,12 +642,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
@@ -683,8 +694,8 @@
       <c r="G5" s="4">
         <v>43028</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>48</v>
+      <c r="H5" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
@@ -702,10 +713,10 @@
         <v>39</v>
       </c>
       <c r="G7" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>43033</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
@@ -716,10 +727,10 @@
         <v>39</v>
       </c>
       <c r="G8" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>43033</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
@@ -730,10 +741,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
+        <v>43033</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
@@ -741,9 +752,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="C11" t="s">
@@ -753,7 +762,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="4">
-        <v>43029</v>
+        <v>43033</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>15</v>
@@ -767,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="4">
-        <v>43029</v>
+        <v>43033</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>15</v>
@@ -781,7 +790,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="4">
-        <v>43029</v>
+        <v>43033</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>15</v>
@@ -795,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="G14" s="4">
-        <v>43029</v>
+        <v>43033</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
@@ -870,8 +879,8 @@
       <c r="G21" s="4">
         <v>43028</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>47</v>
+      <c r="H21" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
@@ -884,8 +893,8 @@
       <c r="G22" s="4">
         <v>43028</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>47</v>
+      <c r="H22" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
@@ -898,8 +907,8 @@
       <c r="G23" s="4">
         <v>43028</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>47</v>
+      <c r="H23" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
@@ -912,8 +921,8 @@
       <c r="G24" s="4">
         <v>43028</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>47</v>
+      <c r="H24" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
@@ -929,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>47</v>
@@ -943,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>48</v>
@@ -957,7 +966,7 @@
         <v>41</v>
       </c>
       <c r="G28" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>48</v>
@@ -971,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="G29" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>49</v>
@@ -990,7 +999,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>47</v>
@@ -1004,7 +1013,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>47</v>
@@ -1018,7 +1027,7 @@
         <v>46</v>
       </c>
       <c r="G33" s="4">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>47</v>

--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘杰生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄勇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,7 +242,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动</t>
+    <t>曹聚丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄新源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄新源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -675,13 +691,13 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="4">
         <v>43028</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
@@ -695,7 +711,7 @@
         <v>43028</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
@@ -710,13 +726,13 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4">
         <v>43033</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
@@ -724,13 +740,13 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G8" s="4">
         <v>43033</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>51</v>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
@@ -738,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4">
         <v>43033</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>51</v>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
@@ -759,13 +775,13 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4">
         <v>43033</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
+      <c r="H11" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
@@ -773,13 +789,13 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="4">
         <v>43033</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
+      <c r="H12" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
@@ -787,13 +803,13 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="4">
         <v>43033</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
@@ -801,13 +817,13 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4">
         <v>43033</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
+      <c r="H14" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
@@ -822,7 +838,7 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4">
         <v>43030</v>
@@ -836,7 +852,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4">
         <v>43030</v>
@@ -850,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4">
         <v>43030</v>
@@ -880,7 +896,7 @@
         <v>43028</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
@@ -894,7 +910,7 @@
         <v>43028</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
@@ -908,7 +924,7 @@
         <v>43028</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
@@ -922,7 +938,7 @@
         <v>43028</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
@@ -935,13 +951,13 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G26" s="4">
         <v>43031</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>47</v>
+      <c r="H26" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
@@ -949,13 +965,13 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G27" s="4">
         <v>43031</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
@@ -963,13 +979,13 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G28" s="4">
         <v>43031</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1">
@@ -977,13 +993,13 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G29" s="4">
         <v>43031</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1">
@@ -996,13 +1012,13 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="4">
         <v>43031</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
@@ -1010,13 +1026,13 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="4">
         <v>43031</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
@@ -1024,13 +1040,13 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="4">
         <v>43031</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1">

--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,12 +265,24 @@
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>24:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -343,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -358,7 +373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,6 +447,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -466,6 +482,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,20 +658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="1" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +684,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -681,12 +699,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -696,11 +714,11 @@
       <c r="G4" s="4">
         <v>43028</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -714,14 +732,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
@@ -731,11 +749,11 @@
       <c r="G7" s="4">
         <v>43033</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -748,8 +766,11 @@
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="I8" s="12">
+        <v>1.0083333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -762,15 +783,18 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="I9" s="12">
+        <v>1.0083333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -783,8 +807,11 @@
       <c r="H11" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -797,8 +824,11 @@
       <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -811,8 +841,11 @@
       <c r="H13" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -825,15 +858,18 @@
       <c r="H14" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="I14" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>33</v>
       </c>
@@ -846,8 +882,11 @@
       <c r="H16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -860,8 +899,11 @@
       <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -874,18 +916,21 @@
       <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -899,7 +944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -913,7 +958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>5</v>
       </c>
@@ -927,7 +972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -941,12 +986,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -957,10 +1002,13 @@
         <v>43031</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>9</v>
       </c>
@@ -973,8 +1021,11 @@
       <c r="H27" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="I27" s="11">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1038,11 @@
       <c r="H28" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+      <c r="I28" s="11">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1001,13 +1055,16 @@
       <c r="H29" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="I29" s="11">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -1018,10 +1075,13 @@
         <v>43031</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1.0055555555555555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -1034,8 +1094,11 @@
       <c r="H32" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="I32" s="12">
+        <v>1.0055555555555555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -1048,8 +1111,11 @@
       <c r="H33" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
+      <c r="I33" s="12">
+        <v>1.0055555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1065,12 +1131,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1078,12 +1144,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -822,9 +822,7 @@
       <c r="G14" s="4">
         <v>43033</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="B15" t="s">

--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,24 +265,12 @@
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>24:80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,9 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,7 +358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,7 +432,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -482,7 +466,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,21 +641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +666,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -699,12 +681,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -714,11 +696,11 @@
       <c r="G4" s="4">
         <v>43028</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -732,14 +714,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
@@ -749,11 +731,11 @@
       <c r="G7" s="4">
         <v>43033</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -766,11 +748,8 @@
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="12">
-        <v>1.0083333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -783,18 +762,15 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="12">
-        <v>1.0083333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -807,11 +783,8 @@
       <c r="H11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -824,11 +797,8 @@
       <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -841,11 +811,8 @@
       <c r="H13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -855,21 +822,16 @@
       <c r="G14" s="4">
         <v>43033</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="C16" t="s">
         <v>33</v>
       </c>
@@ -882,11 +844,8 @@
       <c r="H16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -899,11 +858,8 @@
       <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -916,21 +872,18 @@
       <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -944,7 +897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -958,7 +911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="C23" t="s">
         <v>5</v>
       </c>
@@ -972,7 +925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -986,12 +939,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -1002,13 +955,10 @@
         <v>43031</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="C27" t="s">
         <v>9</v>
       </c>
@@ -1021,11 +971,8 @@
       <c r="H27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="11">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="C28" t="s">
         <v>10</v>
       </c>
@@ -1038,11 +985,8 @@
       <c r="H28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="11">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1055,16 +999,13 @@
       <c r="H29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="11">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="B30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -1075,13 +1016,10 @@
         <v>43031</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="12">
-        <v>1.0055555555555555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -1094,11 +1032,8 @@
       <c r="H32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="12">
-        <v>1.0055555555555555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -1111,11 +1046,8 @@
       <c r="H33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="12">
-        <v>1.0055555555555555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1131,12 +1063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,12 +1076,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投资管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,27 +210,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陶敬鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>曹聚丰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曹聚丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶敬鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黄新源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄新源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>24:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,27 +258,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曹聚丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄新源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄新源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杰生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>曹聚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丰</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +306,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -315,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,6 +365,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,37 +670,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -681,373 +710,423 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4">
         <v>43028</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4">
         <v>43028</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4">
         <v>43033</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4">
         <v>43033</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="H8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.0083333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4">
         <v>43033</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="H9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.0083333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="4">
         <v>43033</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4">
         <v>43033</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="H12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4">
         <v>43033</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="H13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4">
         <v>43033</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4">
         <v>43030</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="H16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="4">
         <v>43030</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="H17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4">
         <v>43030</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="H18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="4">
         <v>43028</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4">
         <v>43028</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4">
         <v>43028</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4">
         <v>43028</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="B25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G26" s="4">
         <v>43031</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="H26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G27" s="4">
         <v>43031</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="H27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G28" s="4">
         <v>43031</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+      <c r="H28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G29" s="4">
         <v>43031</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="B30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4">
         <v>43031</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+      <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1.0055555555555555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4">
         <v>43031</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1.0055555555555555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4">
         <v>43031</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1.0055555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>13</v>
       </c>

--- a/document/黄勇-TFW-理财精灵开发进度表.xlsx
+++ b/document/黄勇-TFW-理财精灵开发进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,19 +222,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄新源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄新源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,15 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -673,7 +652,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -687,12 +666,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -726,7 +705,7 @@
         <v>43028</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -734,13 +713,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" s="4">
         <v>43028</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
@@ -755,13 +734,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4">
         <v>43033</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
@@ -769,15 +748,15 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4">
         <v>43033</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="11">
+        <v>51</v>
+      </c>
+      <c r="I8" s="8">
         <v>1.0083333333333333</v>
       </c>
     </row>
@@ -786,15 +765,15 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4">
         <v>43033</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="8">
         <v>1.0083333333333333</v>
       </c>
     </row>
@@ -815,11 +794,11 @@
       <c r="G11" s="4">
         <v>43033</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>49</v>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
@@ -832,11 +811,11 @@
       <c r="G12" s="4">
         <v>43033</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>46</v>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
@@ -849,11 +828,11 @@
       <c r="G13" s="4">
         <v>43033</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>46</v>
+      <c r="H13" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
@@ -861,16 +840,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4">
         <v>43033</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>52</v>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
@@ -890,11 +869,11 @@
       <c r="G16" s="4">
         <v>43030</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>49</v>
+      <c r="H16" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
@@ -907,11 +886,11 @@
       <c r="G17" s="4">
         <v>43030</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>49</v>
+      <c r="H17" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -924,11 +903,11 @@
       <c r="G18" s="4">
         <v>43030</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>49</v>
+      <c r="H18" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
@@ -952,7 +931,7 @@
         <v>43028</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
@@ -966,7 +945,7 @@
         <v>43028</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
@@ -980,7 +959,7 @@
         <v>43028</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -994,7 +973,7 @@
         <v>43028</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
@@ -1007,15 +986,15 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4">
         <v>43031</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="10">
+        <v>50</v>
+      </c>
+      <c r="I26" s="7">
         <v>0.96458333333333324</v>
       </c>
     </row>
@@ -1024,15 +1003,15 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G27" s="4">
         <v>43031</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="10">
+        <v>50</v>
+      </c>
+      <c r="I27" s="7">
         <v>0.96458333333333324</v>
       </c>
     </row>
@@ -1041,15 +1020,15 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="4">
         <v>43031</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="10">
+        <v>51</v>
+      </c>
+      <c r="I28" s="7">
         <v>0.96458333333333324</v>
       </c>
     </row>
@@ -1058,15 +1037,15 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="4">
         <v>43031</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="10">
+        <v>50</v>
+      </c>
+      <c r="I29" s="7">
         <v>0.96458333333333324</v>
       </c>
     </row>
@@ -1086,9 +1065,9 @@
         <v>43031</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="11">
+        <v>50</v>
+      </c>
+      <c r="I31" s="8">
         <v>1.0055555555555555</v>
       </c>
     </row>
@@ -1102,10 +1081,10 @@
       <c r="G32" s="4">
         <v>43031</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="H32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="8">
         <v>1.0055555555555555</v>
       </c>
     </row>
@@ -1119,10 +1098,10 @@
       <c r="G33" s="4">
         <v>43031</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="H33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="8">
         <v>1.0055555555555555</v>
       </c>
     </row>
